--- a/python/result_data/ibex/__REPORT__2012-01-01_2019-12-31__ALL_IBEX.xlsx
+++ b/python/result_data/ibex/__REPORT__2012-01-01_2019-12-31__ALL_IBEX.xlsx
@@ -1,36 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\GIT_REPO\uc3m\my\uc3m-stockVolatilityPredictionGtrends\python\result_data\ibex\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D058202F-9542-4E3B-A64D-3549D977F7A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="2580" windowWidth="20115" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="__REPORT__" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+  <si>
+    <t>Unnamed: 1</t>
+  </si>
   <si>
     <t>stock</t>
   </si>
@@ -38,101 +25,116 @@
     <t>value</t>
   </si>
   <si>
+    <t>best_sensitivity</t>
+  </si>
+  <si>
+    <t>best_specificity</t>
+  </si>
+  <si>
+    <t>best_odds_ratio</t>
+  </si>
+  <si>
+    <t>best_pvalue</t>
+  </si>
+  <si>
     <t>richest_data_stock</t>
   </si>
   <si>
+    <t>best_precision_binary</t>
+  </si>
+  <si>
+    <t>best_precision_weighted</t>
+  </si>
+  <si>
+    <t>best_f1</t>
+  </si>
+  <si>
+    <t>best_recall_binary</t>
+  </si>
+  <si>
+    <t>best_recall_weighted</t>
+  </si>
+  <si>
+    <t>most_balanced_binary_trend</t>
+  </si>
+  <si>
+    <t>most_balanced_binary_finance</t>
+  </si>
+  <si>
+    <t>poorest_data_stock</t>
+  </si>
+  <si>
+    <t>worst_precision_binary</t>
+  </si>
+  <si>
+    <t>worst_precision_weighted</t>
+  </si>
+  <si>
+    <t>worst_f1</t>
+  </si>
+  <si>
+    <t>worst_recall_binary</t>
+  </si>
+  <si>
+    <t>worst_recall_weighted</t>
+  </si>
+  <si>
+    <t>median_precision_binary</t>
+  </si>
+  <si>
+    <t>median_precision_weighted</t>
+  </si>
+  <si>
+    <t>median_recall_binary</t>
+  </si>
+  <si>
+    <t>median_recall_weighted</t>
+  </si>
+  <si>
+    <t>less_balanced_binary_trend</t>
+  </si>
+  <si>
+    <t>less_balanced_binary_finance</t>
+  </si>
+  <si>
     <t>MTS.MC</t>
   </si>
   <si>
-    <t>best_precision_binary</t>
-  </si>
-  <si>
     <t>ENC.MC</t>
   </si>
   <si>
-    <t>best_precision_weighted</t>
-  </si>
-  <si>
     <t>SGRE.MC</t>
   </si>
   <si>
-    <t>best_f1</t>
-  </si>
-  <si>
-    <t>best_recall_binary</t>
-  </si>
-  <si>
-    <t>best_recall_weighted</t>
-  </si>
-  <si>
     <t>COL.MC</t>
   </si>
   <si>
-    <t>most_balanced_binary_trend</t>
-  </si>
-  <si>
     <t>FER.MC</t>
   </si>
   <si>
+    <t>REE.MC</t>
+  </si>
+  <si>
+    <t>NTGY.MC</t>
+  </si>
+  <si>
+    <t>['ACX.MC', 'ACX.MC', 'ELE.MC', 'ITX.MC', 'VIS.MC']</t>
+  </si>
+  <si>
     <t>{'trend_ceros': 119, 'trend_unos': 91, 'precision_binary': 0.26373626373626374, 'precision_weighted': 0.5816603564502725, 'recall_binary': 0.4067796610169492, 'recall_weighted': 0.5142857142857142}</t>
   </si>
   <si>
-    <t>most_balanced_binary_finance</t>
-  </si>
-  <si>
     <t>{'finance_ceros': 151, 'finance_unos': 59, 'precision_binary': 0.26373626373626374, 'precision_weighted': 0.5816603564502725, 'recall_binary': 0.4067796610169492, 'recall_weighted': 0.5142857142857142}</t>
   </si>
   <si>
-    <t>poorest_data_stock</t>
-  </si>
-  <si>
-    <t>worst_precision_binary</t>
-  </si>
-  <si>
-    <t>REE.MC</t>
-  </si>
-  <si>
-    <t>worst_precision_weighted</t>
-  </si>
-  <si>
-    <t>worst_f1</t>
-  </si>
-  <si>
-    <t>worst_recall_binary</t>
-  </si>
-  <si>
-    <t>NTGY.MC</t>
-  </si>
-  <si>
-    <t>worst_recall_weighted</t>
-  </si>
-  <si>
-    <t>median_precision_binary</t>
-  </si>
-  <si>
-    <t>median_precision_weighted</t>
-  </si>
-  <si>
-    <t>median_recall_binary</t>
-  </si>
-  <si>
-    <t>median_recall_weighted</t>
-  </si>
-  <si>
-    <t>less_balanced_binary_trend</t>
-  </si>
-  <si>
     <t>{}</t>
-  </si>
-  <si>
-    <t>less_balanced_binary_finance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,8 +145,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -193,14 +197,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -488,221 +484,429 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>0.2852292020373515</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>0.80504634168853</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>4066</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>0.4391891891891892</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>0.28522920203735153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>0.7592156862745097</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>0.80504634168852995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="C5">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11">
+        <v>0.09090909090909091</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12">
+        <v>0.5816603564502725</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14">
+        <v>0.09090909090909091</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15">
+        <v>0.5142857142857142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>0.2211884302612395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>0.6555435097178646</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>0.2806263679814903</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>0.6555435097178646</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22">
         <v>0.4391891891891892</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>0.75921568627450975</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11">
-        <v>9.0909090909090912E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>0.58166035645027248</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13">
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23">
+        <v>0.1589403973509934</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14">
-        <v>9.0909090909090912E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>0.51428571428571423</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16">
-        <v>0.22118843026123949</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17">
-        <v>0.65554350971786457</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18">
-        <v>0.28062636798149032</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19">
-        <v>0.65554350971786457</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
         <v>29</v>
       </c>
-      <c r="C20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="E24">
+        <v>0.4391891891891892</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
         <v>31</v>
       </c>
-      <c r="C21" t="s">
-        <v>30</v>
+      <c r="E25">
+        <v>0.1589403973509934</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26">
+        <v>2.608013449145419</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>